--- a/2-Empirical-Evidence/raw_data/ADHCoeffsModel.xlsx
+++ b/2-Empirical-Evidence/raw_data/ADHCoeffsModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasquejp/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF5074-4DC5-304C-8D7F-85CD99033E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24534F1-5476-9742-98D3-B82607D915E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="2680" windowWidth="22700" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15700" yWindow="2680" windowWidth="22700" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="60" r:id="rId1"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:CT43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
